--- a/data/05_input/zm.bs17a.xlsx
+++ b/data/05_input/zm.bs17a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/68D8D534-240C-414B-BE30-F3B974B7E3D3/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/678BF174-53FE-432A-B4EB-0011ABCDC922/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F43B705-15F7-8B44-9921-6157911558C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A3C2C7-F12B-7344-B831-51AA96FCE524}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="17360" yWindow="9740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>SampleID</t>
   </si>
@@ -63,64 +63,67 @@
     <t>B73</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170524_D00635_0241_BCB0RCANXX/Springer_Project_053/JN25_BS_S8_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170524_D00635_0241_BCB0RCANXX/Springer_Project_053/JN25_BS_S8_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s2</t>
   </si>
   <si>
     <t>PH207</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170524_D00635_0241_BCB0RCANXX/Springer_Project_053/JN27_BS_S9_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170524_D00635_0241_BCB0RCANXX/Springer_Project_053/JN27_BS_S9_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s3</t>
   </si>
   <si>
     <t>root</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170602_D00635_0242_ACB1FBANXX/Springer_Project_053/JN26_BS_S1_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170602_D00635_0242_ACB1FBANXX/Springer_Project_053/JN26_BS_S1_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s4</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170602_D00635_0242_ACB1FBANXX/Springer_Project_053/JN28_BS_S2_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170602_D00635_0242_ACB1FBANXX/Springer_Project_053/JN28_BS_S2_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s5</t>
   </si>
   <si>
     <t>B73xPH207</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170602_D00635_0242_ACB1FBANXX/Springer_Project_053/JN29_BS_S3_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170602_D00635_0242_ACB1FBANXX/Springer_Project_053/JN29_BS_S3_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s6</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170602_D00635_0242_ACB1FBANXX/Springer_Project_053/JN30_BS_S4_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170602_D00635_0242_ACB1FBANXX/Springer_Project_053/JN30_BS_S4_R2_001.fastq</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>170524_D00635_0241_BCB0RCANXX/JN25_BS_S8_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170524_D00635_0241_BCB0RCANXX/JN25_BS_S8_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170524_D00635_0241_BCB0RCANXX/JN27_BS_S9_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170524_D00635_0241_BCB0RCANXX/JN27_BS_S9_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170602_D00635_0242_ACB1FBANXX/JN26_BS_S1_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170602_D00635_0242_ACB1FBANXX/JN26_BS_S1_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170602_D00635_0242_ACB1FBANXX/JN28_BS_S2_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170602_D00635_0242_ACB1FBANXX/JN28_BS_S2_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170602_D00635_0242_ACB1FBANXX/JN29_BS_S3_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170602_D00635_0242_ACB1FBANXX/JN29_BS_S3_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170602_D00635_0242_ACB1FBANXX/JN30_BS_S4_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170602_D00635_0242_ACB1FBANXX/JN30_BS_S4_R2_001.fastq</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,45 +529,45 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -572,83 +575,83 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
